--- a/testing/microsoft/MSRC_Security_Update_Guide.xlsx
+++ b/testing/microsoft/MSRC_Security_Update_Guide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E763"/>
+  <dimension ref="A1:E883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21069,6 +21069,3250 @@
         </is>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>CVE-2023-33146 Microsoft Office Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-33146</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>Acknowledgement added. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>CVE-2023-36900 Windows Common Log File System Driver Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36900</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>Updated acknowledgment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>CVE-2023-35387 Windows Bluetooth A2DP driver Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35387</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>Updated acknowledgment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>CVE-2023-36894 Microsoft SharePoint Server Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36894</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>Updated acknowledgment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>CVE-2023-38180 .NET and Visual Studio Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38180</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>Updated CVE to correct exploit status. This is an informational update only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>ADV230003 Microsoft Office Defense in Depth Update</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/ADV230003</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>Added acknowledgements. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>CVE-2023-35389 Microsoft Dynamics 365 On-Premises Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35389</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>In the Security Updates table, removed Microsoft Dynamics 365 (on-premises) version 9.1 as it is not affected by this vulnerability. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>CVE-2023-29360 Microsoft Streaming Service Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-29360</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>Corrected CVE title and updated one or more CVSS scores for the affected products. These are informational changes only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>CVE-2023-35368 Microsoft Exchange Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35368</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>Added FAQ regarding a new known issue in the August Exchange security updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>CVE-2023-36884 Windows Search Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36884</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>Links on Security Updates table corrected to reflect that the updates that address this vulnerability are the August 2023 Windows updates.  Microsoft recommends installing the August 2023 updates as soon as possible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>CVE-2023-38185 Microsoft Exchange Server Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38185</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>Added FAQ regarding a new known issue in the August Exchange security updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>CVE-2023-21709 Microsoft Exchange Server Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-21709</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>Added FAQ regarding a new known issue in the August Exchange security updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>CVE-2023-36895 Microsoft Outlook Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36895</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>Added an FAQ. This is an information change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>CVE-2023-35388 Microsoft Exchange Server Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35388</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>Added FAQ regarding a new known issue in the August Exchange security updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>CVE-2023-38182 Microsoft Exchange Server Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38182</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>Added FAQ regarding a new known issue in the August Exchange security updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>CVE-2023-38181 Microsoft Exchange Server Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38181</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>Added FAQ regarding a new known issue in the August Exchange security updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>ADV990001 Latest Servicing Stack Updates</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/ADV990001</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>Advisory updated to announce new versions of Servicing Stack Updates are available.  Please see the FAQ for details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>CVE-2023-29328 Microsoft Teams Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-29328</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>CVE-2023-29330 Microsoft Teams Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-29330</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>CVE-2023-35359 Windows Kernel Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35359</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>CVE-2023-35368 Microsoft Exchange Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35368</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>CVE-2023-36865 Microsoft Office Visio Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36865</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>CVE-2023-36866 Microsoft Office Visio Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36866</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>CVE-2023-36869 Azure DevOps Server Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36869</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>CVE-2023-36873 .NET Framework Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36873</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>CVE-2023-36876 Reliability Analysis Metrics Calculation (RacTask) Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36876</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>CVE-2023-36882 Microsoft WDAC OLE DB provider for SQL Server Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36882</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>ADV230003 Microsoft Office Defense in Depth Update</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/ADV230003</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>Microsoft has released an update for Microsoft Office that provides enhanced security as a defense in depth measure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>CVE-2023-36889 Windows Group Policy Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36889</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>CVE-2023-36898 Tablet Windows User Interface Application Core Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36898</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>CVE-2023-36899 ASP.NET Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36899</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>CVE-2023-36900 Windows Common Log File System Driver Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36900</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>CVE-2023-36903 Windows System Assessment Tool Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36903</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>CVE-2023-36904 Windows Cloud Files Mini Filter Driver Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36904</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>CVE-2023-36905 Windows Wireless Wide Area Network Service (WwanSvc) Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36905</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>CVE-2023-36906 Windows Cryptographic Services Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36906</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>CVE-2023-36907 Windows Cryptographic Services Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36907</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>CVE-2023-36908 Windows Hyper-V Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36908</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>CVE-2023-36909 Microsoft Message Queuing Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36909</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>CVE-2023-36910 Microsoft Message Queuing Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36910</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>CVE-2023-36911 Microsoft Message Queuing Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36911</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>CVE-2023-36912 Microsoft Message Queuing Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36912</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>CVE-2023-36913 Microsoft Message Queuing Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36913</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>CVE-2023-36914 Windows Smart Card Resource Management Server Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36914</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>CVE-2023-35376 Microsoft Message Queuing Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35376</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>CVE-2023-38254 Microsoft Message Queuing Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38254</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>CVE-2023-35377 Microsoft Message Queuing Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35377</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>CVE-2023-35378 Windows Projected File System Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35378</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>CVE-2023-35379 Reliability Analysis Metrics Calculation Engine (RACEng) Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35379</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>CVE-2023-35380 Windows Kernel Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35380</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>CVE-2023-35381 Windows Fax Service Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35381</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>CVE-2023-35382 Windows Kernel Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35382</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>CVE-2023-35383 Microsoft Message Queuing Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35383</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>CVE-2023-35384 Windows HTML Platforms Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35384</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>CVE-2023-35385 Microsoft Message Queuing Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35385</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>CVE-2023-35386 Windows Kernel Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35386</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>CVE-2023-35387 Windows Bluetooth A2DP driver Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35387</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>CVE-2023-35389 Microsoft Dynamics 365 On-Premises Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35389</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>CVE-2023-35393 Azure Apache Hive Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35393</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>CVE-2023-35394 Azure HDInsight Jupyter Notebook Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35394</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>CVE-2023-38188 Azure Apache Hadoop Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38188</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>CVE-2023-38186 Windows Mobile Device Management Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38186</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>CVE-2023-38185 Microsoft Exchange Server Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38185</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>CVE-2023-38184 Windows Lightweight Directory Access Protocol (LDAP) Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38184</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>CVE-2023-38175 Microsoft Windows Defender Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38175</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>CVE-2023-38172 Microsoft Message Queuing Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38172</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>CVE-2023-38170 HEVC Video Extensions Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38170</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>CVE-2023-38169 Microsoft OLE DB Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38169</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>Information published. This CVE was addressed by SQL related updates that were released in June 2023, but the CVE was inadvertently omitted from the June 2023 Security Updates. This is an informational change only. Customers who have already installed the June 2023 update do not need to take any further action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>CVE-2023-38167 Microsoft Dynamics Business Central Elevation Of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38167</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>CVE-2023-21709 Microsoft Exchange Server Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-21709</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>CVE-2023-35371 Microsoft Office Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35371</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>CVE-2023-35372 Microsoft Office Visio Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35372</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>CVE-2023-36877 Azure Apache Oozie Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36877</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>CVE-2023-36881 Azure Apache Ambari Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36881</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>CVE-2023-36890 Microsoft SharePoint Server Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36890</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>CVE-2023-36891 Microsoft SharePoint Server Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36891</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>CVE-2023-36892 Microsoft SharePoint Server Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36892</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>CVE-2023-36893 Microsoft Outlook Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36893</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>CVE-2023-36894 Microsoft SharePoint Server Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36894</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>CVE-2023-36895 Microsoft Outlook Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36895</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>CVE-2023-36896 Microsoft Excel Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36896</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>CVE-2023-36897 Visual Studio Tools for Office Runtime Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36897</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>CVE-2023-35388 Microsoft Exchange Server Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35388</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>CVE-2023-20569 AMD: CVE-2023-20569 Return Address Predictor</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-20569</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>CVE-2023-35390 .NET and Visual Studio Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35390</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>CVE-2023-35391 ASP.NET Core SignalR and Visual Studio Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35391</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>CVE-2023-38182 Microsoft Exchange Server Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38182</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>CVE-2023-38181 Microsoft Exchange Server Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38181</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>CVE-2023-38180 .NET and Visual Studio Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38180</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>CVE-2023-38178 .NET Core and Visual Studio Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38178</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>CVE-2023-38176 Azure Arc-Enabled Servers Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38176</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>CVE-2023-38154 Windows Kernel Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38154</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>ADV230004 Memory Integrity System Readiness Scan Tool Defense in Depth Update</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/ADV230004</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>The Memory Integrity System Readiness Scan Tool (hvciscan_amd64.exe and hvciscan_arm64.exe) is used to check for compatibility issues with memory integrity, also known as hypervisor-protected code integrity (HVCI).  The original version was published without a RSRC section, which contains resource information for a module.  The new version addresses this issue.  Please see [Driver compatibility with memory integrity and VBS](https://learn.microsoft.com/en-us/windows-hardware/test/hlk/testref/driver-compatibility-with-device-guard) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>CVE-2023-36884 Windows Search Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36884</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>Updated affected software to include just Windows products with links to August 2023 security updates.  Adjusted information in the FAQs.  The Office updates are documented in [ADV230003](https://msrc.microsoft.com/update-guide/vulnerability/ADV230003).</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>ADV230001 Guidance on Microsoft Signed Drivers Being Used Maliciously</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/ADV230001</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>Microsoft is announcing that the August 8, 2023 Window Security updates (see Security Updates table) add additional untrusted drivers and driver signing certificates to the Windows Driver.STL revocation list. Microsoft strongly recommends that customers install the August 2023 updates to be add these additional drivers and driver certificates. Customers whose systems are configured to receive automatic updates do not need to take any further action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>ADV190023 Microsoft Guidance for Enabling LDAP Channel Binding and LDAP Signing</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/ADV190023</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>Microsoft is announcing that the August 8, 2023 updates are available for Windows Server 2022 and Windows Server 2022 (Server Core installation) to audit client machines that cannot utilize LDAP channel binding tokens via events on Active Directory domain controllers. The updates add the capability to enable CBT events 3074 &amp; 3075 with event source **Microsoft-Windows-ActiveDirectory_DomainService** in the Directory Service event log.</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4068 Type Confusion in V8</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4068</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4069 Type Confusion in V8</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4069</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4070 Type Confusion in V8</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4070</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4071 Heap buffer overflow in Visuals</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4071</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4072 Out of bounds read and write in WebGL</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4072</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4073 Out of bounds memory access in ANGLE</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4073</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4074 Use after free in Blink Task Scheduling</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4074</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4075 Use after free in Cast</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4075</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4076 Use after free in WebRTC</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4076</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4077 Insufficient data validation in Extensions</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4077</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Chromium: CVE-2023-4078 Inappropriate implementation in Extensions</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-4078</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>This CVE was assigned by Chrome.  Microsoft Edge (Chromium-based) ingests Chromium, which addresses this vulnerability. Please see [Google Chrome Releases](https://chromereleases.googleblog.com/2023) for more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>CVE-2023-38157 Microsoft Edge (Chromium-based) Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38157</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>CVE-2021-31982 Microsoft Edge (Chromium-based) Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2021-31982</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>Updated one or more CVSS scores for the affected products. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>CVE-2021-34506 Microsoft Edge (Chromium-based) Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2021-34506</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>Added an FAQ. This is an information change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>CVE-2021-34475 Microsoft Edge (Chromium-based) Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2021-34475</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>Added an FAQ. This is an information change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>CVE-2021-42307 Microsoft Edge (Chromium-based) Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2021-42307</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>Updated one or more CVSS scores for the affected products. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>CVE-2022-29144 Microsoft Edge (Chromium-based) Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2022-29144</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>Updated one or more CVSS scores for the affected products. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>CVE-2023-28261 Microsoft Edge (Chromium-based) Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-28261</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>Updated one or more CVSS scores for the affected products and added an FAQ explaining the vector string settings. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>CVE-2023-33140 Microsoft OneNote Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-33140</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>Added an FAQ. This is an information change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>CVE-2023-21808 .NET and Visual Studio Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-21808</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>To address a known issue when after installing the February 14, 2023, security updates for .NET Framework and .NET, users may have experienced issues with how WPF-based applications render XPS documents, Microsoft has released the June 2023 security updates for .NET Framework and for .NET. We recommend that customers install the June 2023 updates. Please note that if you used any workaround or mitigations for this issue, they are no longer needed, and we recommend you remove them. To remove either of the workarounds see the instructions for removal in the Alternative Workaround section of [KB5022083 Change in how WPF-based applications render XPS documents](https://support.microsoft.com/en-us/topic/kb5022083-change-in-how-wpf-based-applications-render-xps-documents-a4ae4fa4-bc58-4c37-acdd-5eebc4e34556).</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>CVE-2022-41089 .NET Framework Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2022-41089</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>To address a known issue when after installing the December 13, 2022, updates for .NET Framework and .NET, users may have experienced issues with how WPF-based applications render XPS documents, Microsoft has released the June 2023 security updates for .NET Framework and for .NET. We recommend that customers install the June 2023 updates. Please note that if you used any workaround or mitigations for this issue, they are no longer needed, and we recommend you remove them. To remove either of the workarounds see the instructions for removal in the Alternative Workaround section of [KB5022083 Change in how WPF-based applications render XPS documents](https://support.microsoft.com/en-us/topic/kb5022083-change-in-how-wpf-based-applications-render-xps-documents-a4ae4fa4-bc58-4c37-acdd-5eebc4e34556).</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>CVE-2023-33141 Yet Another Reverse Proxy (YARP) Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-33141</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>&lt;div style=font-family: 'Segoe UI','Helvetica Neue',sans-serif; font-size: 9pt;&gt;
+&lt;div&gt;FAQ added to explain that the YARP 2.0 is not immediately available. The update will be released as soon as possible, and when it is available, customers will be notified via a revision to this CVE information.&lt;/div&gt;
+&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>CVE-2023-25652 GitHub: CVE-2023-25652 git apply --reject partially-controlled arbitrary file write</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-25652</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>CVE-2023-32022 Windows Server Service Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-32022</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>&lt;div style=font-family: 'Segoe UI','Helvetica Neue',sans-serif; font-size: 9pt;&gt;
+&lt;div&gt;Windows Server Service Security Feature Bypass Vulnerability&lt;/div&gt;
+&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/microsoft/MSRC_Security_Update_Guide.xlsx
+++ b/testing/microsoft/MSRC_Security_Update_Guide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E883"/>
+  <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24313,6 +24313,195 @@
         </is>
       </c>
     </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>CVE-2021-34506 Microsoft Edge (Chromium-based) Security Feature Bypass Vulnerability</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2021-34506</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>Updated information to include CVSS scores. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>CVE-2023-38158 Microsoft Edge (Chromium-based) Information Disclosure Vulnerability</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-38158</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>CVE-2023-21709 Microsoft Exchange Server Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-21709</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>Corrected security updates table.  This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>CVE-2023-36787 Microsoft Edge (Chromium-based) Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-36787</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>Information published.</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>CVE-2023-35323 Windows OLE Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35323</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>Acknowledgement added. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>CVE-2023-32057 Microsoft Message Queuing Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-32057</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>Acknowledgement added. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>MSRC Security Update Guide</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>CVE-2023-35309 Microsoft Message Queuing Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-35309</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>Acknowledgement added. This is an informational change only.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
